--- a/Pôle mécatronique/Electronique/Années précédentes/Documentations/Composants/Composants_Cartes_def.xlsx
+++ b/Pôle mécatronique/Electronique/Années précédentes/Documentations/Composants/Composants_Cartes_def.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouchette Gabriel\Documents\Github\Robotech\Documentations\Composants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\2021-2022\Pôle mécatronique\Electronique\Années précédentes\Documentations\Composants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E6D9AC-F787-4A63-A471-032227E24130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2774E63E-E93D-44BA-AE61-6F82362D534D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="2805" windowWidth="15375" windowHeight="7995" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertisseur de tensions" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="217">
   <si>
     <t>Nom</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>3*1.4*1mm / 3pin / SOT-23 (TO-236AB)</t>
+  </si>
+  <si>
+    <t>BSS138</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1037,15 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{63806ADD-377A-4840-B892-038618EB01EA}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{D9784544-9B26-4974-A56C-5CAE1B271AED}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1116,7 +1127,23 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1174,31 +1201,6 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1249,23 +1251,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1318,6 +1304,31 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1441,7 +1452,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5990FA85-1C86-4163-8817-50E1F55EABEC}" name="Tableau46213" displayName="Tableau46213" ref="A1:E7" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5990FA85-1C86-4163-8817-50E1F55EABEC}" name="Tableau46213" displayName="Tableau46213" ref="A1:E7" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:E7" xr:uid="{E2980BE6-4A9F-4CCF-B596-B04B3B721F70}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1450,18 +1461,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BD7F7563-E588-41B9-830D-5C2C26068073}" name="Nom" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{05609C35-9488-4559-81B5-441DB1796594}" name="Boitier" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{C9CBBBD8-3A5C-435B-8D04-8D8F555F5A8E}" name="Quantité" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{C1AAC1EC-9786-4C0F-8A1C-7EB685AD6ADC}" name="Colonne1" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{5E530C5B-A597-452C-BF22-E8C24EE1B4CC}" name="Courant" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{BD7F7563-E588-41B9-830D-5C2C26068073}" name="Nom" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{05609C35-9488-4559-81B5-441DB1796594}" name="Boitier" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{C9CBBBD8-3A5C-435B-8D04-8D8F555F5A8E}" name="Quantité" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{C1AAC1EC-9786-4C0F-8A1C-7EB685AD6ADC}" name="Colonne1" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{5E530C5B-A597-452C-BF22-E8C24EE1B4CC}" name="Courant" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7C15F53D-DDA9-4E54-B3BB-8C03294DB357}" name="Tableau4629" displayName="Tableau4629" ref="A1:F17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7C15F53D-DDA9-4E54-B3BB-8C03294DB357}" name="Tableau4629" displayName="Tableau4629" ref="A1:F17" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F17" xr:uid="{CAD4FFCA-4BF3-44F4-BAA4-CBE4B8F30F31}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1471,19 +1482,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{258F3816-820C-4053-9E84-8516635C1934}" name="Polarisation" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F65DBCFD-2B4D-420D-85B9-A3F9856E1C23}" name="Valeur" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{B7E42DD5-B9E3-4AC5-8550-E31CE6755425}" name="Boitier" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{B6C4C7E9-D048-4771-9DAA-2D5B41167473}" name="Tension" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{2A22D9A9-F56B-489B-B184-3C148BB2BFB3}" name="Code RS" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{254F2423-4D93-4B12-85C7-942360EF27D6}" name="Quantité" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{258F3816-820C-4053-9E84-8516635C1934}" name="Polarisation" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{F65DBCFD-2B4D-420D-85B9-A3F9856E1C23}" name="Valeur" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{B7E42DD5-B9E3-4AC5-8550-E31CE6755425}" name="Boitier" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{B6C4C7E9-D048-4771-9DAA-2D5B41167473}" name="Tension" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{2A22D9A9-F56B-489B-B184-3C148BB2BFB3}" name="Code RS" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{254F2423-4D93-4B12-85C7-942360EF27D6}" name="Quantité" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{103D03CD-72E6-4EF1-B5B3-9C53974F3A61}" name="Tableau46211" displayName="Tableau46211" ref="A1:D18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{103D03CD-72E6-4EF1-B5B3-9C53974F3A61}" name="Tableau46211" displayName="Tableau46211" ref="A1:D18" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:D18" xr:uid="{CE049560-E235-4528-9082-498CA17BB17A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1491,33 +1502,33 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{0E736051-CA7E-401C-BD51-34335F4495BC}" name="Valeur" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2093563C-0849-4549-9C77-D03B4F45DFAE}" name="Boitier" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{36E53522-5086-4BE3-8F29-5A5934A562DC}" name="Code RS" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{86669756-850B-4C44-9709-5F4247E2BA67}" name="Quantité" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0E736051-CA7E-401C-BD51-34335F4495BC}" name="Valeur" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{2093563C-0849-4549-9C77-D03B4F45DFAE}" name="Boitier" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{36E53522-5086-4BE3-8F29-5A5934A562DC}" name="Code RS" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{86669756-850B-4C44-9709-5F4247E2BA67}" name="Quantité" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9540FF02-B1A3-46EE-BBBB-D09F15132891}" name="Tableau4621115" displayName="Tableau4621115" ref="A1:C3" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9540FF02-B1A3-46EE-BBBB-D09F15132891}" name="Tableau4621115" displayName="Tableau4621115" ref="A1:C3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:C3" xr:uid="{CE049560-E235-4528-9082-498CA17BB17A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{CD6F4FA7-4DB8-44B9-80F8-82C6BDA62A74}" name="Valeur" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{0B7D8EDD-674F-469B-8CEB-24FCB9A48934}" name="Boitier" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{0514F785-2F9B-4080-A7DE-91675C91C5C1}" name="Quantité" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{CD6F4FA7-4DB8-44B9-80F8-82C6BDA62A74}" name="Valeur" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{0B7D8EDD-674F-469B-8CEB-24FCB9A48934}" name="Boitier" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{0514F785-2F9B-4080-A7DE-91675C91C5C1}" name="Quantité" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{37DD8E41-3DE1-4183-B333-20B932FFA5C6}" name="Tableau4621114" displayName="Tableau4621114" ref="A1:G10" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{37DD8E41-3DE1-4183-B333-20B932FFA5C6}" name="Tableau4621114" displayName="Tableau4621114" ref="A1:G10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:G10" xr:uid="{CE049560-E235-4528-9082-498CA17BB17A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1528,33 +1539,35 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="9" xr3:uid="{260FCF41-B2B5-4D92-BABC-872AB1F2C2B7}" name="Type" dataDxfId="26"/>
-    <tableColumn id="1" xr3:uid="{887F08F0-2C70-4F9E-80EA-DB45DB417905}" name="Nom" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{74B2F87F-C650-4F7E-B871-D4A17612BB96}" name="Boitier" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{BD77C852-9E5F-461F-B742-1E7BD2AD4E83}" name="Référence RS" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{260FCF41-B2B5-4D92-BABC-872AB1F2C2B7}" name="Type" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{887F08F0-2C70-4F9E-80EA-DB45DB417905}" name="Nom" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{74B2F87F-C650-4F7E-B871-D4A17612BB96}" name="Boitier" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{BD77C852-9E5F-461F-B742-1E7BD2AD4E83}" name="Référence RS" dataDxfId="10"/>
     <tableColumn id="10" xr3:uid="{F953D140-9723-44AD-8E68-DB38B4297269}" name="Courrant/ puissance max à dissiper"/>
-    <tableColumn id="6" xr3:uid="{415B2CB5-B82B-43F9-A87E-B1204E40701A}" name="Tension" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{47A3BAF7-F20F-4620-9C1A-AB327AF08DC3}" name="Quantité" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{415B2CB5-B82B-43F9-A87E-B1204E40701A}" name="Tension" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{47A3BAF7-F20F-4620-9C1A-AB327AF08DC3}" name="Quantité" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C19EE8A8-26FE-4B0F-85B1-F81439170F01}" name="Tableau46212" displayName="Tableau46212" ref="A1:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E23" xr:uid="{0380E8DA-B4C4-4B13-A32E-CB9E547C69D6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C19EE8A8-26FE-4B0F-85B1-F81439170F01}" name="Tableau46212" displayName="Tableau46212" ref="A1:F23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F23" xr:uid="{0380E8DA-B4C4-4B13-A32E-CB9E547C69D6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="9" xr3:uid="{EF896B5F-D099-486C-96B2-218418D2D28C}" name="Type" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{A41C7227-D75C-4637-BEE9-74E05537610C}" name="Nom" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{20CA597A-B435-4D5C-A37B-592CA7C5F5B3}" name="Boitier" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{92F08709-64FD-483F-9DD9-E74599187F59}" name="Référence RS/Amazon/Robotshop" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5DED7D26-F73D-4226-B01C-1D0771F7A054}" name="Quantité" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="9" xr3:uid="{EF896B5F-D099-486C-96B2-218418D2D28C}" name="Type" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A41C7227-D75C-4637-BEE9-74E05537610C}" name="Nom" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{20CA597A-B435-4D5C-A37B-592CA7C5F5B3}" name="Boitier" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{92F08709-64FD-483F-9DD9-E74599187F59}" name="Référence RS/Amazon/Robotshop" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5DED7D26-F73D-4226-B01C-1D0771F7A054}" name="Quantité" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E53E61D4-34D0-4F49-8E8A-86180634B336}" name="Colonne1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3231,7 +3244,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3472,8 +3485,8 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,6 +3514,9 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3518,6 +3534,7 @@
       <c r="E2" s="3">
         <v>5</v>
       </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3535,6 +3552,7 @@
       <c r="E3" s="3">
         <v>3</v>
       </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3552,6 +3570,7 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3569,6 +3588,7 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3586,6 +3606,7 @@
       <c r="E6" s="3">
         <v>5</v>
       </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3603,6 +3624,7 @@
       <c r="E7" s="3">
         <v>5</v>
       </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3620,6 +3642,7 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3635,6 +3658,7 @@
       <c r="E9" s="3">
         <v>3</v>
       </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3652,6 +3676,7 @@
       <c r="E10" s="3">
         <v>5</v>
       </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -3669,6 +3694,7 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3686,6 +3712,7 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
+      <c r="F12" s="2"/>
       <c r="G12" t="s">
         <v>22</v>
       </c>
@@ -3706,6 +3733,7 @@
       <c r="E13" s="3">
         <v>5</v>
       </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3723,6 +3751,7 @@
       <c r="E14" s="3">
         <v>10</v>
       </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3740,6 +3769,7 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3757,8 +3787,9 @@
       <c r="E16" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
@@ -3774,8 +3805,9 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>148</v>
       </c>
@@ -3791,8 +3823,9 @@
       <c r="E18" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>194</v>
       </c>
@@ -3808,8 +3841,9 @@
       <c r="E19" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>200</v>
       </c>
@@ -3825,8 +3859,11 @@
       <c r="E20" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>202</v>
       </c>
@@ -3842,8 +3879,9 @@
       <c r="E21" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>211</v>
       </c>
@@ -3857,8 +3895,9 @@
       <c r="E22" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>213</v>
       </c>
@@ -3872,6 +3911,7 @@
       <c r="E23" s="37">
         <v>2</v>
       </c>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
